--- a/biology/Botanique/Pinguicula_ramosa/Pinguicula_ramosa.xlsx
+++ b/biology/Botanique/Pinguicula_ramosa/Pinguicula_ramosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grassette du Japon (Pinguicula ramosa) est une plante carnivore vivace du Japon. Elle appartient à la famille des Lentibulariaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kōshinsō, Japon</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinguicula ramosa est une plante terrestre à feuilles vert tendre, oblongues de 7 à 15 mm de long pour 5 à 8 mm de largeur. Elle possède un pétiole clair et des poils glanduleux. Ses fleurs, de couleur pourpre pâle, s'épanouissent en juin et juillet[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinguicula ramosa est une plante terrestre à feuilles vert tendre, oblongues de 7 à 15 mm de long pour 5 à 8 mm de largeur. Elle possède un pétiole clair et des poils glanduleux. Ses fleurs, de couleur pourpre pâle, s'épanouissent en juin et juillet.
 </t>
         </is>
       </c>
@@ -572,9 +588,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1890, la grassette du Japon est découverte par le botaniste japonais Manabu Miyoshi, sur les pentes du mont Kōshin dans le sud-est de Nikkō (préfecture de Tochigi), d'où son nom local : herbe de Kōshin (庚申草, Kōshinsō?)[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1890, la grassette du Japon est découverte par le botaniste japonais Manabu Miyoshi, sur les pentes du mont Kōshin dans le sud-est de Nikkō (préfecture de Tochigi), d'où son nom local : herbe de Kōshin (庚申草, Kōshinsō?),.
 </t>
         </is>
       </c>
@@ -603,9 +621,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est strictement endémique du Japon où elle se rencontre communément dans des zones humides de montagne entre 1 200 et 2 200 mètres d'altitude (étage montagnard à alpin). Plante emblématique de la ville de Nikkō, elle peuple notamment les pentes des monts Nantai et Nyohō dans le parc national de Nikkō[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est strictement endémique du Japon où elle se rencontre communément dans des zones humides de montagne entre 1 200 et 2 200 mètres d'altitude (étage montagnard à alpin). Plante emblématique de la ville de Nikkō, elle peuple notamment les pentes des monts Nantai et Nyohō dans le parc national de Nikkō.
 </t>
         </is>
       </c>
@@ -634,9 +654,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce relativement rare est protégée au Japon. Elle figure en effet sur la liste des plantes menacées de disparition du ministère de l'Environnement[1]. Elle est aussi inscrite sur la liste des monuments naturels spéciaux du Japon depuis 1952[3],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce relativement rare est protégée au Japon. Elle figure en effet sur la liste des plantes menacées de disparition du ministère de l'Environnement. Elle est aussi inscrite sur la liste des monuments naturels spéciaux du Japon depuis 1952,.
 </t>
         </is>
       </c>
@@ -665,9 +687,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1978, le ministère des Postes et Télécommunications du Japon émet un timbre commémoratif de 50 yens — 19e d'une série sur le thème de la conservation de la nature — représentant des fleurs de Pinguicula ramosa[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1978, le ministère des Postes et Télécommunications du Japon émet un timbre commémoratif de 50 yens — 19e d'une série sur le thème de la conservation de la nature — représentant des fleurs de Pinguicula ramosa.
 </t>
         </is>
       </c>
